--- a/Affy/ARI/ARI_percentage_normed_results.xlsx
+++ b/Affy/ARI/ARI_percentage_normed_results.xlsx
@@ -487,31 +487,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.3231846700063226</v>
+        <v>0.2030773565271132</v>
       </c>
       <c r="C2">
-        <v>0.03146381383014545</v>
+        <v>0.3586383285908433</v>
       </c>
       <c r="D2">
-        <v>0.3246404326649622</v>
+        <v>0.2920997974838273</v>
       </c>
       <c r="E2">
-        <v>0.1762291725437023</v>
+        <v>-0.04706463449054476</v>
       </c>
       <c r="F2">
-        <v>0.1762291725437023</v>
+        <v>-0.02521342967184042</v>
       </c>
       <c r="G2">
-        <v>-0.05888023498982833</v>
+        <v>-0.01456839544959351</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.03026737721180251</v>
+        <v>0.4310742903707728</v>
       </c>
       <c r="J2">
-        <v>-0.02735195382910817</v>
+        <v>-0.008345833758740517</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -519,19 +519,19 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.5081518746962064</v>
+        <v>0.3060149997554619</v>
       </c>
       <c r="C3">
-        <v>0.5656059362848276</v>
+        <v>0.6045913867399139</v>
       </c>
       <c r="D3">
-        <v>0.5691789400102912</v>
+        <v>0.4395497136685166</v>
       </c>
       <c r="E3">
-        <v>0.02983498280468808</v>
+        <v>0.606274581506411</v>
       </c>
       <c r="F3">
-        <v>0.5829403207947256</v>
+        <v>0.4632617221138344</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5357368096956788</v>
+        <v>0.4350634056425048</v>
       </c>
       <c r="J3">
-        <v>0.5176981693324314</v>
+        <v>0.4862065791702738</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -551,31 +551,31 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1753748237563402</v>
+        <v>0.2035648004861985</v>
       </c>
       <c r="C4">
-        <v>0.258559531398623</v>
+        <v>0.03759293020688034</v>
       </c>
       <c r="D4">
-        <v>0.4285125611646504</v>
+        <v>0.07975460823787993</v>
       </c>
       <c r="E4">
-        <v>0.1183238265098372</v>
+        <v>0.3958446515967743</v>
       </c>
       <c r="F4">
-        <v>0.09731113802320161</v>
+        <v>0.2319513376959622</v>
       </c>
       <c r="G4">
-        <v>0.1243373250319292</v>
+        <v>0.1086963201998874</v>
       </c>
       <c r="H4">
-        <v>0.0684116516830431</v>
+        <v>0.08424470825742002</v>
       </c>
       <c r="I4">
-        <v>0.1542737056319022</v>
+        <v>0.1120178051926603</v>
       </c>
       <c r="J4">
-        <v>0.1542710633191722</v>
+        <v>0.1848811027798208</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -583,31 +583,31 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.7780876219875478</v>
+        <v>0.8491860042760604</v>
       </c>
       <c r="C5">
-        <v>0.8132120285889071</v>
+        <v>0.7103531195001243</v>
       </c>
       <c r="D5">
-        <v>0.7780876219875478</v>
+        <v>0.2379363358182544</v>
       </c>
       <c r="E5">
-        <v>0.7437040793122646</v>
+        <v>0.6147161768971295</v>
       </c>
       <c r="F5">
         <v>0.7780876219875478</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.7439439017723934</v>
       </c>
       <c r="H5">
-        <v>0.4975216529270583</v>
+        <v>0.05129425985305078</v>
       </c>
       <c r="I5">
-        <v>0.645815616102869</v>
+        <v>0.7780876219875478</v>
       </c>
       <c r="J5">
-        <v>0.7780876219875478</v>
+        <v>0.5843133674214755</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -615,31 +615,31 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.518875252446792</v>
+        <v>0.2189349112426036</v>
       </c>
       <c r="C6">
-        <v>0.2044848674925513</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="D6">
-        <v>0.2520148791072536</v>
+        <v>0.3155576529809658</v>
       </c>
       <c r="E6">
-        <v>0.6013576056772602</v>
+        <v>0.2534435261707989</v>
       </c>
       <c r="F6">
-        <v>0.2046235551390191</v>
+        <v>0.3401126408010013</v>
       </c>
       <c r="G6">
-        <v>0.08803780154190495</v>
+        <v>0.2802620336086585</v>
       </c>
       <c r="H6">
-        <v>0.3191809695874736</v>
+        <v>0.4696667616063799</v>
       </c>
       <c r="I6">
-        <v>0.1407319250223148</v>
+        <v>0.1873961009520931</v>
       </c>
       <c r="J6">
-        <v>0.2678996777357434</v>
+        <v>0.2995938769134646</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -647,31 +647,31 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.2924076518857912</v>
+        <v>0.8346807199251247</v>
       </c>
       <c r="C7">
-        <v>0.1113356979738594</v>
+        <v>0.03084074308018725</v>
       </c>
       <c r="D7">
-        <v>0.1548029736164424</v>
+        <v>0.4693057389143434</v>
       </c>
       <c r="E7">
-        <v>0.2616757397062536</v>
+        <v>0.2320642294485963</v>
       </c>
       <c r="F7">
-        <v>-0.01614678899082562</v>
+        <v>0.1065168539325843</v>
       </c>
       <c r="G7">
-        <v>0.1493867140963472</v>
+        <v>0.0667017201231879</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0.05170824942830832</v>
       </c>
       <c r="I7">
-        <v>0.8350985622275714</v>
+        <v>0.0255854095424198</v>
       </c>
       <c r="J7">
-        <v>0.0207451024799004</v>
+        <v>0.2036599763872492</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -679,31 +679,31 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.2198970286399843</v>
+        <v>0.2593551020268173</v>
       </c>
       <c r="C8">
-        <v>0.1931936624033883</v>
+        <v>0.3814072148643259</v>
       </c>
       <c r="D8">
-        <v>0.4336657323527937</v>
+        <v>0.278620125771039</v>
       </c>
       <c r="E8">
-        <v>0.2419667554222785</v>
+        <v>0.04718292575143716</v>
       </c>
       <c r="F8">
-        <v>0.1370306395242543</v>
+        <v>0.2792851034485887</v>
       </c>
       <c r="G8">
-        <v>0.1454607977991747</v>
+        <v>0.1660068544774337</v>
       </c>
       <c r="H8">
-        <v>0.1999806768100895</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.02089182399945439</v>
+        <v>0.267850820877102</v>
       </c>
       <c r="J8">
-        <v>0.06171469024074824</v>
+        <v>-0.01918982468696437</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -711,31 +711,31 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.1728198263748104</v>
+        <v>-0.05131399655247695</v>
       </c>
       <c r="C9">
-        <v>-0.09467246854051502</v>
+        <v>-0.1076593250940549</v>
       </c>
       <c r="D9">
-        <v>0.07302076657948978</v>
+        <v>0.3021776442138979</v>
       </c>
       <c r="E9">
-        <v>-0.01287310793605881</v>
+        <v>-0.08941583497565135</v>
       </c>
       <c r="F9">
-        <v>-0.06634725770700664</v>
+        <v>0.9451128337639966</v>
       </c>
       <c r="G9">
-        <v>0.1042617861573134</v>
+        <v>0.1246380278546183</v>
       </c>
       <c r="H9">
-        <v>0.06276157954644951</v>
+        <v>0.03326093792544518</v>
       </c>
       <c r="I9">
-        <v>-0.03405080203578819</v>
+        <v>-0.103064149378208</v>
       </c>
       <c r="J9">
-        <v>-0.008735531775496833</v>
+        <v>-0.1045867640169459</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -743,31 +743,31 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.5577055977885279</v>
+        <v>0.3780234968901174</v>
       </c>
       <c r="C10">
-        <v>0.1859807801017525</v>
+        <v>-0.01964223079621187</v>
       </c>
       <c r="D10">
-        <v>-0.03356325108440586</v>
+        <v>0.05612065941774814</v>
       </c>
       <c r="E10">
-        <v>0.06033940917661845</v>
+        <v>0.09389638537369779</v>
       </c>
       <c r="F10">
-        <v>0.06919894697254611</v>
+        <v>-0.1065903603684166</v>
       </c>
       <c r="G10">
-        <v>0.4015515330624307</v>
+        <v>-0.1057360055286801</v>
       </c>
       <c r="H10">
         <v>0.09389638537369779</v>
       </c>
       <c r="I10">
-        <v>-0.1057360055286801</v>
+        <v>0.222427647016995</v>
       </c>
       <c r="J10">
-        <v>0.4015515330624307</v>
+        <v>-0.1192764273600903</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -775,31 +775,31 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.01816848025430983</v>
+        <v>0.06784783881846881</v>
       </c>
       <c r="C11">
-        <v>-0.01557963971485661</v>
+        <v>0.02546097041634578</v>
       </c>
       <c r="D11">
-        <v>0.02292350832458914</v>
+        <v>0.05215785028672356</v>
       </c>
       <c r="E11">
-        <v>0.01427768091133833</v>
+        <v>0.1551474499143076</v>
       </c>
       <c r="F11">
-        <v>0.1320164907352875</v>
+        <v>0.1240487167136861</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0217220622873593</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.04906720995769173</v>
+        <v>0.03612316378273828</v>
       </c>
       <c r="J11">
-        <v>0.02476930548810102</v>
+        <v>0.09626274065685164</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -807,31 +807,31 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.02272727272727273</v>
+        <v>-0.01027960526315787</v>
       </c>
       <c r="C12">
+        <v>-0.03583473861720073</v>
+      </c>
+      <c r="D12">
+        <v>-0.02574926129168418</v>
+      </c>
+      <c r="E12">
         <v>-0.03802281368821287</v>
       </c>
-      <c r="D12">
-        <v>0.01451679800912478</v>
-      </c>
-      <c r="E12">
-        <v>-0.03583473861720073</v>
-      </c>
       <c r="F12">
-        <v>-0.03583473861720073</v>
+        <v>-0.02932551319648097</v>
       </c>
       <c r="G12">
-        <v>0.005728314238952386</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.01801424382069546</v>
+        <v>-0.03409090909090909</v>
       </c>
       <c r="J12">
-        <v>-0.03191936161276768</v>
+        <v>-0.02704987320371931</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.04297994269340966</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C13">
-        <v>0.07297297297297292</v>
+        <v>-0.01111111111111107</v>
       </c>
       <c r="D13">
-        <v>-0.06478873239436632</v>
+        <v>-0.02162162162162168</v>
       </c>
       <c r="E13">
-        <v>-0.06944444444444441</v>
+        <v>0.1463414634146342</v>
       </c>
       <c r="F13">
         <v>-0.03846153846153846</v>
@@ -860,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-0.02997275204359669</v>
+        <v>0.09742120343839548</v>
       </c>
       <c r="J13">
-        <v>-0.1031518624641833</v>
+        <v>-0.06944444444444441</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -874,16 +874,16 @@
         <v>0.01282051282051274</v>
       </c>
       <c r="C14">
-        <v>0.2403314917127071</v>
+        <v>-0.05925925925925932</v>
       </c>
       <c r="D14">
-        <v>0.1263812154696132</v>
+        <v>0.04938271604938262</v>
       </c>
       <c r="E14">
-        <v>0.04106628242074932</v>
+        <v>-0.03314917127071831</v>
       </c>
       <c r="F14">
-        <v>0.3115543328748281</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.03846153846153846</v>
+        <v>0.08080110497237562</v>
       </c>
       <c r="J14">
-        <v>0.04743975903614452</v>
+        <v>0.06135401974612128</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -903,31 +903,31 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.4221231043710972</v>
+        <v>0.08803016022620171</v>
       </c>
       <c r="C15">
-        <v>0.4870547350130322</v>
+        <v>0.4295938882187375</v>
       </c>
       <c r="D15">
-        <v>0.2423721529866782</v>
+        <v>0.2467566390944711</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0007168458781361984</v>
       </c>
       <c r="F15">
-        <v>0.3206910090302316</v>
+        <v>0.5412078152753108</v>
       </c>
       <c r="G15">
-        <v>-0.005947955390334553</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1339011925042589</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3619596541786744</v>
+        <v>0.2053880176919984</v>
       </c>
       <c r="J15">
-        <v>0.1578089338115423</v>
+        <v>0.189460555035859</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -935,31 +935,31 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.5330156185527813</v>
+        <v>0.2296243443743885</v>
       </c>
       <c r="C16">
-        <v>0.4131452497803277</v>
+        <v>0.3171130143609565</v>
       </c>
       <c r="D16">
-        <v>0.3405426432671359</v>
+        <v>0.4411627132582989</v>
       </c>
       <c r="E16">
-        <v>0.07153332642297355</v>
+        <v>0.02701104325362462</v>
       </c>
       <c r="F16">
-        <v>0.296977801821783</v>
+        <v>0.5041558545739103</v>
       </c>
       <c r="G16">
-        <v>0.04067260293091416</v>
+        <v>0.05554327312625021</v>
       </c>
       <c r="H16">
-        <v>0.01061304919752932</v>
+        <v>0.06607181017159286</v>
       </c>
       <c r="I16">
-        <v>0.3041523635147503</v>
+        <v>0.4127498792155826</v>
       </c>
       <c r="J16">
-        <v>0.1680679006939576</v>
+        <v>0.2356256661564519</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -967,19 +967,19 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.007513019721676731</v>
+        <v>-0.09018095520617032</v>
       </c>
       <c r="C17">
-        <v>0.1517436380772856</v>
+        <v>0.1575185090630584</v>
       </c>
       <c r="D17">
-        <v>0.07204780742361756</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="E17">
-        <v>-0.0379596678529063</v>
+        <v>0.1380285673879225</v>
       </c>
       <c r="F17">
-        <v>0.2153565924057728</v>
+        <v>0.1268575266560322</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1720430107526882</v>
+        <v>0.1449934068400528</v>
       </c>
       <c r="J17">
-        <v>0.1072851904989637</v>
+        <v>-0.0461798583958576</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -999,31 +999,31 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.03660012572204167</v>
+        <v>0.2277701310661704</v>
       </c>
       <c r="C18">
-        <v>-0.005421586095005795</v>
+        <v>0.02891295783279457</v>
       </c>
       <c r="D18">
-        <v>0.04592475034136347</v>
+        <v>0.02891295783279457</v>
       </c>
       <c r="E18">
-        <v>0.05476258236826547</v>
+        <v>0.07535211267605635</v>
       </c>
       <c r="F18">
-        <v>0.06351267324592659</v>
+        <v>0.02891295783279457</v>
       </c>
       <c r="G18">
-        <v>0.008296067636378706</v>
+        <v>0.02047608029498984</v>
       </c>
       <c r="H18">
-        <v>0.04470931575248197</v>
+        <v>0.01899253161528389</v>
       </c>
       <c r="I18">
-        <v>0.03464195416923115</v>
+        <v>0.03845373496969431</v>
       </c>
       <c r="J18">
-        <v>0.03747248805472274</v>
+        <v>0.01233779839950207</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1031,31 +1031,31 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.4371181380424429</v>
+        <v>0.4373379463464265</v>
       </c>
       <c r="C19">
-        <v>0.5456061201902329</v>
+        <v>0.3957752827261105</v>
       </c>
       <c r="D19">
-        <v>0.4592382940592886</v>
+        <v>0.2987437626653427</v>
       </c>
       <c r="E19">
-        <v>0.4061716703792929</v>
+        <v>0.1678025151349637</v>
       </c>
       <c r="F19">
-        <v>0.3684607292341432</v>
+        <v>0.3643394196220798</v>
       </c>
       <c r="G19">
-        <v>0.007470344684526453</v>
+        <v>0.0888019465556701</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02014327193445445</v>
       </c>
       <c r="I19">
-        <v>0.466474527202023</v>
+        <v>0.5053496848550396</v>
       </c>
       <c r="J19">
-        <v>0.4408640405431918</v>
+        <v>0.4108260032192536</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1063,20 +1063,20 @@
         <v>29</v>
       </c>
       <c r="B20">
+        <v>0.3775891341256367</v>
+      </c>
+      <c r="C20">
+        <v>-0.01464371980676338</v>
+      </c>
+      <c r="D20">
+        <v>0.3774012152319131</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0.02558603303608387</v>
       </c>
-      <c r="C20">
-        <v>0.4327097163548582</v>
-      </c>
-      <c r="D20">
-        <v>0.04226415094339623</v>
-      </c>
-      <c r="E20">
-        <v>0.3775891341256367</v>
-      </c>
-      <c r="F20">
-        <v>0.01864280387770324</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2355421686746988</v>
+        <v>0.000446162998215441</v>
       </c>
       <c r="J20">
-        <v>0.02441137690713888</v>
+        <v>0.1557735849056604</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1095,19 +1095,19 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.3641406319388931</v>
+        <v>0.07407713641926475</v>
       </c>
       <c r="C21">
-        <v>0.005251818440798862</v>
+        <v>0.5662828008425362</v>
       </c>
       <c r="D21">
-        <v>0.01710603854316571</v>
+        <v>0.0289530268830432</v>
       </c>
       <c r="E21">
-        <v>0.06058974258919662</v>
+        <v>0.5288960144458497</v>
       </c>
       <c r="F21">
-        <v>0.02406039190491525</v>
+        <v>-0.006359522004726558</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0366014757768094</v>
+        <v>0.006162187568193721</v>
       </c>
       <c r="J21">
-        <v>-0.006359522004726558</v>
+        <v>-0.01243816254416922</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1127,19 +1127,19 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.02280493561658905</v>
+        <v>0.004969146055828015</v>
       </c>
       <c r="C22">
-        <v>0.01546660269235488</v>
+        <v>0.05344262515326211</v>
       </c>
       <c r="D22">
-        <v>0.01361207128246227</v>
+        <v>0.01714222394433712</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.004671908811878477</v>
       </c>
       <c r="F22">
-        <v>-0.008326545981154482</v>
+        <v>-0.02601210832104633</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01797216612065115</v>
+        <v>0.01708685482789689</v>
       </c>
       <c r="J22">
-        <v>0.007453632302489989</v>
+        <v>0.004190429202395022</v>
       </c>
     </row>
   </sheetData>

--- a/Affy/ARI/ARI_percentage_normed_results.xlsx
+++ b/Affy/ARI/ARI_percentage_normed_results.xlsx
@@ -487,31 +487,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.2030773565271132</v>
+        <v>0.01056994247676745</v>
       </c>
       <c r="C2">
-        <v>0.3586383285908433</v>
+        <v>0.01133906181184957</v>
       </c>
       <c r="D2">
-        <v>0.2920997974838273</v>
+        <v>0.01001342744656226</v>
       </c>
       <c r="E2">
-        <v>-0.04706463449054476</v>
+        <v>0.009644806185928015</v>
       </c>
       <c r="F2">
-        <v>-0.02521342967184042</v>
+        <v>0.008671148076285329</v>
       </c>
       <c r="G2">
-        <v>-0.01456839544959351</v>
+        <v>-0.000375554691430421</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0.0002275887674435008</v>
       </c>
       <c r="I2">
-        <v>0.4310742903707728</v>
+        <v>0.009816238996627775</v>
       </c>
       <c r="J2">
-        <v>-0.008345833758740517</v>
+        <v>0.008173170444088699</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -519,31 +519,31 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.3060149997554619</v>
+        <v>0.01826527576084707</v>
       </c>
       <c r="C3">
-        <v>0.6045913867399139</v>
+        <v>0.01738755940265791</v>
       </c>
       <c r="D3">
-        <v>0.4395497136685166</v>
+        <v>0.02050860828307044</v>
       </c>
       <c r="E3">
-        <v>0.606274581506411</v>
+        <v>0.02106645618583566</v>
       </c>
       <c r="F3">
-        <v>0.4632617221138344</v>
+        <v>0.01896875821989069</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0002098379975316661</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-8.077622168393406e-06</v>
       </c>
       <c r="I3">
-        <v>0.4350634056425048</v>
+        <v>0.01942881324400623</v>
       </c>
       <c r="J3">
-        <v>0.4862065791702738</v>
+        <v>0.01727460933077573</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -551,31 +551,31 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.2035648004861985</v>
+        <v>0.007874539861925623</v>
       </c>
       <c r="C4">
-        <v>0.03759293020688034</v>
+        <v>0.006808695254060444</v>
       </c>
       <c r="D4">
-        <v>0.07975460823787993</v>
+        <v>0.00904058208482989</v>
       </c>
       <c r="E4">
-        <v>0.3958446515967743</v>
+        <v>0.007139932282525817</v>
       </c>
       <c r="F4">
-        <v>0.2319513376959622</v>
+        <v>0.008161341890414111</v>
       </c>
       <c r="G4">
-        <v>0.1086963201998874</v>
+        <v>0.002620165328813561</v>
       </c>
       <c r="H4">
-        <v>0.08424470825742002</v>
+        <v>0.002476448864216088</v>
       </c>
       <c r="I4">
-        <v>0.1120178051926603</v>
+        <v>0.008480770087829903</v>
       </c>
       <c r="J4">
-        <v>0.1848811027798208</v>
+        <v>0.007889054725568286</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -583,31 +583,31 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.8491860042760604</v>
+        <v>0.0274769613903341</v>
       </c>
       <c r="C5">
-        <v>0.7103531195001243</v>
+        <v>0.0274449393896941</v>
       </c>
       <c r="D5">
-        <v>0.2379363358182544</v>
+        <v>0.02642447256283213</v>
       </c>
       <c r="E5">
-        <v>0.6147161768971295</v>
+        <v>0.02529362104080368</v>
       </c>
       <c r="F5">
-        <v>0.7780876219875478</v>
+        <v>0.03010068609112786</v>
       </c>
       <c r="G5">
-        <v>0.7439439017723934</v>
+        <v>0.01127822033300833</v>
       </c>
       <c r="H5">
-        <v>0.05129425985305078</v>
+        <v>0.01250081291529635</v>
       </c>
       <c r="I5">
-        <v>0.7780876219875478</v>
+        <v>0.03005057447596796</v>
       </c>
       <c r="J5">
-        <v>0.5843133674214755</v>
+        <v>0.02155909629707142</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -615,31 +615,31 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.2189349112426036</v>
+        <v>0.01119885377587261</v>
       </c>
       <c r="C6">
-        <v>0.08284023668639054</v>
+        <v>0.01208648528942879</v>
       </c>
       <c r="D6">
-        <v>0.3155576529809658</v>
+        <v>0.01285949484808851</v>
       </c>
       <c r="E6">
-        <v>0.2534435261707989</v>
+        <v>0.01045884589391263</v>
       </c>
       <c r="F6">
-        <v>0.3401126408010013</v>
+        <v>0.009600858422473907</v>
       </c>
       <c r="G6">
-        <v>0.2802620336086585</v>
+        <v>0.007709297479564835</v>
       </c>
       <c r="H6">
-        <v>0.4696667616063799</v>
+        <v>0.006218130637420485</v>
       </c>
       <c r="I6">
-        <v>0.1873961009520931</v>
+        <v>0.01189062746346498</v>
       </c>
       <c r="J6">
-        <v>0.2995938769134646</v>
+        <v>0.009977563151092628</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -647,31 +647,31 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.8346807199251247</v>
+        <v>0.007049469657684639</v>
       </c>
       <c r="C7">
-        <v>0.03084074308018725</v>
+        <v>0.01150148341690935</v>
       </c>
       <c r="D7">
-        <v>0.4693057389143434</v>
+        <v>0.008295753852179987</v>
       </c>
       <c r="E7">
-        <v>0.2320642294485963</v>
+        <v>0.01320650971034687</v>
       </c>
       <c r="F7">
-        <v>0.1065168539325843</v>
+        <v>0.001399128277761279</v>
       </c>
       <c r="G7">
-        <v>0.0667017201231879</v>
+        <v>0.004595439464731666</v>
       </c>
       <c r="H7">
-        <v>-0.05170824942830832</v>
+        <v>0.003637623628986282</v>
       </c>
       <c r="I7">
-        <v>0.0255854095424198</v>
+        <v>0.008356232551572083</v>
       </c>
       <c r="J7">
-        <v>0.2036599763872492</v>
+        <v>0.001559835134143025</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -679,31 +679,31 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.2593551020268173</v>
+        <v>0.008361722649789424</v>
       </c>
       <c r="C8">
-        <v>0.3814072148643259</v>
+        <v>0.00917157760056519</v>
       </c>
       <c r="D8">
-        <v>0.278620125771039</v>
+        <v>0.008897554983813784</v>
       </c>
       <c r="E8">
-        <v>0.04718292575143716</v>
+        <v>0.007689667489613378</v>
       </c>
       <c r="F8">
-        <v>0.2792851034485887</v>
+        <v>0.009819586297457267</v>
       </c>
       <c r="G8">
-        <v>0.1660068544774337</v>
+        <v>0.002056795049967598</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001397318297321359</v>
       </c>
       <c r="I8">
-        <v>0.267850820877102</v>
+        <v>0.008060118783463034</v>
       </c>
       <c r="J8">
-        <v>-0.01918982468696437</v>
+        <v>0.005131024041046983</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -711,31 +711,31 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.05131399655247695</v>
+        <v>0.01142905933329536</v>
       </c>
       <c r="C9">
-        <v>-0.1076593250940549</v>
+        <v>0.003560031527714421</v>
       </c>
       <c r="D9">
-        <v>0.3021776442138979</v>
+        <v>0.01707920116627646</v>
       </c>
       <c r="E9">
-        <v>-0.08941583497565135</v>
+        <v>0.003789961295263825</v>
       </c>
       <c r="F9">
-        <v>0.9451128337639966</v>
+        <v>0.01904568221126353</v>
       </c>
       <c r="G9">
-        <v>0.1246380278546183</v>
+        <v>0.003068341028472691</v>
       </c>
       <c r="H9">
-        <v>0.03326093792544518</v>
+        <v>0.004230075682502454</v>
       </c>
       <c r="I9">
-        <v>-0.103064149378208</v>
+        <v>0.007664406401105928</v>
       </c>
       <c r="J9">
-        <v>-0.1045867640169459</v>
+        <v>0.002580291750305925</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -743,31 +743,31 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.3780234968901174</v>
+        <v>0.002478905762406648</v>
       </c>
       <c r="C10">
-        <v>-0.01964223079621187</v>
+        <v>0.00370345182542871</v>
       </c>
       <c r="D10">
-        <v>0.05612065941774814</v>
+        <v>0.002261980328058942</v>
       </c>
       <c r="E10">
-        <v>0.09389638537369779</v>
+        <v>0.004600016669713537</v>
       </c>
       <c r="F10">
-        <v>-0.1065903603684166</v>
+        <v>0.004773500930843181</v>
       </c>
       <c r="G10">
-        <v>-0.1057360055286801</v>
+        <v>0.006524203187455724</v>
       </c>
       <c r="H10">
-        <v>0.09389638537369779</v>
+        <v>0.005838714369797882</v>
       </c>
       <c r="I10">
-        <v>0.222427647016995</v>
+        <v>0.004146105149215601</v>
       </c>
       <c r="J10">
-        <v>-0.1192764273600903</v>
+        <v>-0.0004620885893979589</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -775,31 +775,31 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.06784783881846881</v>
+        <v>0.002925220713767607</v>
       </c>
       <c r="C11">
-        <v>0.02546097041634578</v>
+        <v>0.003082604719119479</v>
       </c>
       <c r="D11">
-        <v>0.05215785028672356</v>
+        <v>0.003194381545681978</v>
       </c>
       <c r="E11">
-        <v>0.1551474499143076</v>
+        <v>0.002991613538536854</v>
       </c>
       <c r="F11">
-        <v>0.1240487167136861</v>
+        <v>0.003014389131399597</v>
       </c>
       <c r="G11">
-        <v>0.0217220622873593</v>
+        <v>-0.0002096813887017</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-4.876001832747454e-05</v>
       </c>
       <c r="I11">
-        <v>0.03612316378273828</v>
+        <v>0.002503669059042036</v>
       </c>
       <c r="J11">
-        <v>0.09626274065685164</v>
+        <v>0.002980914122415501</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -807,31 +807,31 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.01027960526315787</v>
+        <v>-0.0009115147052489693</v>
       </c>
       <c r="C12">
-        <v>-0.03583473861720073</v>
+        <v>-0.000525401396838595</v>
       </c>
       <c r="D12">
-        <v>-0.02574926129168418</v>
+        <v>-0.0007374540890964391</v>
       </c>
       <c r="E12">
-        <v>-0.03802281368821287</v>
+        <v>-0.0002465006149151076</v>
       </c>
       <c r="F12">
-        <v>-0.02932551319648097</v>
+        <v>-0.0006768502833110091</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-1.462651877901464e-05</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0001252824491858915</v>
       </c>
       <c r="I12">
-        <v>-0.03409090909090909</v>
+        <v>-0.0004093466185588938</v>
       </c>
       <c r="J12">
-        <v>-0.02704987320371931</v>
+        <v>-0.0005505545406238629</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -839,31 +839,31 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.0576923076923077</v>
+        <v>-0.0005791387590770283</v>
       </c>
       <c r="C13">
-        <v>-0.01111111111111107</v>
+        <v>-0.0002996452089293242</v>
       </c>
       <c r="D13">
-        <v>-0.02162162162162168</v>
+        <v>-0.001301815184181158</v>
       </c>
       <c r="E13">
-        <v>0.1463414634146342</v>
+        <v>0.0003146552836180816</v>
       </c>
       <c r="F13">
-        <v>-0.03846153846153846</v>
+        <v>-0.0007392561725517569</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-6.95414568972701e-06</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.0001844385076001838</v>
       </c>
       <c r="I13">
-        <v>0.09742120343839548</v>
+        <v>-0.0004749217342294171</v>
       </c>
       <c r="J13">
-        <v>-0.06944444444444441</v>
+        <v>-0.0007703304993382227</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -871,31 +871,31 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.01282051282051274</v>
+        <v>0.0008769397457127845</v>
       </c>
       <c r="C14">
-        <v>-0.05925925925925932</v>
+        <v>0.0004101351523299218</v>
       </c>
       <c r="D14">
-        <v>0.04938271604938262</v>
+        <v>0.001310131264264103</v>
       </c>
       <c r="E14">
-        <v>-0.03314917127071831</v>
+        <v>0.001751052766744161</v>
       </c>
       <c r="F14">
-        <v>0.4652777777777778</v>
+        <v>-0.0001899628379601059</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004734740983606561</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.987282051282025e-05</v>
       </c>
       <c r="I14">
-        <v>0.08080110497237562</v>
+        <v>0.0001583848831576751</v>
       </c>
       <c r="J14">
-        <v>0.06135401974612128</v>
+        <v>0.001440055008694607</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -903,31 +903,31 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.08803016022620171</v>
+        <v>0.01456227801459128</v>
       </c>
       <c r="C15">
-        <v>0.4295938882187375</v>
+        <v>0.01360173501474668</v>
       </c>
       <c r="D15">
-        <v>0.2467566390944711</v>
+        <v>0.01435085431846374</v>
       </c>
       <c r="E15">
-        <v>0.0007168458781361984</v>
+        <v>0.002650217814957079</v>
       </c>
       <c r="F15">
-        <v>0.5412078152753108</v>
+        <v>0.01125998369030859</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0003535057355501272</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.457203615098353e-05</v>
       </c>
       <c r="I15">
-        <v>0.2053880176919984</v>
+        <v>0.01385731646713446</v>
       </c>
       <c r="J15">
-        <v>0.189460555035859</v>
+        <v>0.008458990973839269</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -935,31 +935,31 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.2296243443743885</v>
+        <v>0.01300052425690472</v>
       </c>
       <c r="C16">
-        <v>0.3171130143609565</v>
+        <v>0.01455148060368619</v>
       </c>
       <c r="D16">
-        <v>0.4411627132582989</v>
+        <v>0.01620975437116678</v>
       </c>
       <c r="E16">
-        <v>0.02701104325362462</v>
+        <v>0.002329268125163794</v>
       </c>
       <c r="F16">
-        <v>0.5041558545739103</v>
+        <v>0.01386306458926374</v>
       </c>
       <c r="G16">
-        <v>0.05554327312625021</v>
+        <v>0.002165846109700272</v>
       </c>
       <c r="H16">
-        <v>0.06607181017159286</v>
+        <v>0.001402680086135097</v>
       </c>
       <c r="I16">
-        <v>0.4127498792155826</v>
+        <v>0.01447114387058512</v>
       </c>
       <c r="J16">
-        <v>0.2356256661564519</v>
+        <v>0.009560670181558366</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -967,31 +967,31 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>-0.09018095520617032</v>
+        <v>0.00358413696036154</v>
       </c>
       <c r="C17">
-        <v>0.1575185090630584</v>
+        <v>0.003201618734806863</v>
       </c>
       <c r="D17">
-        <v>0.1720430107526882</v>
+        <v>0.004366281608662734</v>
       </c>
       <c r="E17">
-        <v>0.1380285673879225</v>
+        <v>0.002389260694545108</v>
       </c>
       <c r="F17">
-        <v>0.1268575266560322</v>
+        <v>0.002759520987885824</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-5.096805485900959e-05</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.0008904282898937885</v>
       </c>
       <c r="I17">
-        <v>0.1449934068400528</v>
+        <v>0.003073353946662514</v>
       </c>
       <c r="J17">
-        <v>-0.0461798583958576</v>
+        <v>0.003723124795657052</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -999,31 +999,31 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.2277701310661704</v>
+        <v>0.002164688249449228</v>
       </c>
       <c r="C18">
-        <v>0.02891295783279457</v>
+        <v>0.00187663465797083</v>
       </c>
       <c r="D18">
-        <v>0.02891295783279457</v>
+        <v>0.002257907073241758</v>
       </c>
       <c r="E18">
-        <v>0.07535211267605635</v>
+        <v>0.001749751151282661</v>
       </c>
       <c r="F18">
-        <v>0.02891295783279457</v>
+        <v>0.002527113004067022</v>
       </c>
       <c r="G18">
-        <v>0.02047608029498984</v>
+        <v>0.0007122741892579419</v>
       </c>
       <c r="H18">
-        <v>0.01899253161528389</v>
+        <v>0.0006102651997433645</v>
       </c>
       <c r="I18">
-        <v>0.03845373496969431</v>
+        <v>0.002116839821429733</v>
       </c>
       <c r="J18">
-        <v>0.01233779839950207</v>
+        <v>0.003465678829537605</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1031,31 +1031,31 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.4373379463464265</v>
+        <v>0.01650939282814495</v>
       </c>
       <c r="C19">
-        <v>0.3957752827261105</v>
+        <v>0.01478903796766176</v>
       </c>
       <c r="D19">
-        <v>0.2987437626653427</v>
+        <v>0.01822337677057355</v>
       </c>
       <c r="E19">
-        <v>0.1678025151349637</v>
+        <v>0.008240587336706127</v>
       </c>
       <c r="F19">
-        <v>0.3643394196220798</v>
+        <v>0.01695712049246462</v>
       </c>
       <c r="G19">
-        <v>0.0888019465556701</v>
+        <v>0.003066634296274942</v>
       </c>
       <c r="H19">
-        <v>0.02014327193445445</v>
+        <v>0.002015968506572909</v>
       </c>
       <c r="I19">
-        <v>0.5053496848550396</v>
+        <v>0.0161794626180932</v>
       </c>
       <c r="J19">
-        <v>0.4108260032192536</v>
+        <v>0.01298045874672037</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1063,31 +1063,31 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.3775891341256367</v>
+        <v>0.003775629680829288</v>
       </c>
       <c r="C20">
-        <v>-0.01464371980676338</v>
+        <v>0.004944248228697179</v>
       </c>
       <c r="D20">
-        <v>0.3774012152319131</v>
+        <v>0.003996883264578507</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.004758200634362395</v>
       </c>
       <c r="F20">
-        <v>0.02558603303608387</v>
+        <v>0.003866927499053525</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3.056098023716316e-05</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.000446162998215441</v>
+        <v>0.003158567072627935</v>
       </c>
       <c r="J20">
-        <v>0.1557735849056604</v>
+        <v>0.0007829131244774389</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1095,31 +1095,31 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.07407713641926475</v>
+        <v>0.0007576045256331353</v>
       </c>
       <c r="C21">
-        <v>0.5662828008425362</v>
+        <v>0.00219366419973484</v>
       </c>
       <c r="D21">
-        <v>0.0289530268830432</v>
+        <v>0.001424147204216999</v>
       </c>
       <c r="E21">
-        <v>0.5288960144458497</v>
+        <v>0.0007370254735952158</v>
       </c>
       <c r="F21">
-        <v>-0.006359522004726558</v>
+        <v>-0.0002341540933692816</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0001010829619374696</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001339450022289128</v>
       </c>
       <c r="I21">
-        <v>0.006162187568193721</v>
+        <v>0.001161167128101373</v>
       </c>
       <c r="J21">
-        <v>-0.01243816254416922</v>
+        <v>-0.0004903620757925454</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1127,31 +1127,31 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.004969146055828015</v>
+        <v>0.001476666115803279</v>
       </c>
       <c r="C22">
-        <v>0.05344262515326211</v>
+        <v>0.001571247024520695</v>
       </c>
       <c r="D22">
-        <v>0.01714222394433712</v>
+        <v>0.001781673880015631</v>
       </c>
       <c r="E22">
-        <v>-0.004671908811878477</v>
+        <v>-4.489212325483438e-05</v>
       </c>
       <c r="F22">
-        <v>-0.02601210832104633</v>
+        <v>0.000463365675875699</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3.98985753714755e-05</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.869688592469185e-05</v>
       </c>
       <c r="I22">
-        <v>0.01708685482789689</v>
+        <v>0.001573077075014946</v>
       </c>
       <c r="J22">
-        <v>0.004190429202395022</v>
+        <v>0.0002855304237769079</v>
       </c>
     </row>
   </sheetData>
